--- a/testCSV.xlsx
+++ b/testCSV.xlsx
@@ -538,8 +538,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010093848318F01FFC4A96381909532B2949" ma:contentTypeVersion="26" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="48711d466e918ef23b20ac5f1ac66eb3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02888fe1-7cec-4f41-84cc-8be3d6639e71" xmlns:ns3="0431e43e-dcd7-4536-abea-5fb81c96588e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9aaa197637ff67db4b13ceb4e2f3f79c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010093848318F01FFC4A96381909532B2949" ma:contentTypeVersion="27" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="9e95343986c838388943f6810250a80c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02888fe1-7cec-4f41-84cc-8be3d6639e71" xmlns:ns3="0431e43e-dcd7-4536-abea-5fb81c96588e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2a9a3f54ae0b638e935ea29849bd42d" ns2:_="" ns3:_="">
     <xsd:import namespace="02888fe1-7cec-4f41-84cc-8be3d6639e71"/>
     <xsd:import namespace="0431e43e-dcd7-4536-abea-5fb81c96588e"/>
     <xsd:element name="properties">
@@ -566,6 +566,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -699,6 +700,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="26" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -824,7 +830,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A93D663-D7A1-4132-81A1-42682ED77159}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{803509EA-F1DA-4C9B-9E9A-0C9E87B1DA0E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
